--- a/app/seeds/union_test.xlsx
+++ b/app/seeds/union_test.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927"/>
+    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="テストA-1" sheetId="26" r:id="rId1"/>
     <sheet name="テストA-2" sheetId="27" r:id="rId2"/>
     <sheet name="テストA-3" sheetId="28" r:id="rId3"/>
     <sheet name="テストA-4" sheetId="29" r:id="rId4"/>
+    <sheet name="テストB-1" sheetId="31" r:id="rId5"/>
+    <sheet name="テストB-2" sheetId="32" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
   <si>
     <t>名前</t>
   </si>
@@ -211,6 +213,80 @@
   </si>
   <si>
     <t>結合テストA00000004マスタ</t>
+  </si>
+  <si>
+    <t>UnionTestB00000001</t>
+  </si>
+  <si>
+    <t>結合テストB00000001マスタ</t>
+  </si>
+  <si>
+    <t>UnionTestB00000002</t>
+  </si>
+  <si>
+    <t>結合テストB00000002マスタ</t>
+  </si>
+  <si>
+    <t>cond1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>idx_cond1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件1</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"test_a_cd":20230100,"lv":2}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"test_a_cd":20230101,"lv":3}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件1</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -294,8 +370,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,7 +569,7 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="171">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -549,6 +645,16 @@
     <cellStyle name="ハイパーリンク" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -625,6 +731,16 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -955,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1352,7 +1468,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1742,7 +1858,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2102,7 +2218,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2449,6 +2565,903 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15">
+        <v>3.9060000000000002E-3</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3906</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3906</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.24902299999999999</v>
+      </c>
+      <c r="C18" s="8">
+        <v>249023</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3906</v>
+      </c>
+      <c r="E18" s="11">
+        <v>252929</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.24902299999999999</v>
+      </c>
+      <c r="C19" s="8">
+        <v>249023</v>
+      </c>
+      <c r="D19" s="11">
+        <v>252929</v>
+      </c>
+      <c r="E19" s="11">
+        <v>501952</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.24902299999999999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>249023</v>
+      </c>
+      <c r="D20" s="11">
+        <v>501952</v>
+      </c>
+      <c r="E20" s="11">
+        <v>750975</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="15">
+        <v>0.24902299999999999</v>
+      </c>
+      <c r="C21" s="8">
+        <v>249025</v>
+      </c>
+      <c r="D21" s="11">
+        <v>750975</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="15">
+        <v>1</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0</v>
+      </c>
+      <c r="E22" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="15">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0</v>
+      </c>
+      <c r="E23" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="17"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" s="12"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C17" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0</v>
+      </c>
+      <c r="E17" s="11">
+        <v>250000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C18" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D18" s="11">
+        <v>250000</v>
+      </c>
+      <c r="E18" s="11">
+        <v>500000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C19" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D19" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E19" s="11">
+        <v>750000</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="15">
+        <v>0.25</v>
+      </c>
+      <c r="C20" s="8">
+        <v>250000</v>
+      </c>
+      <c r="D20" s="11">
+        <v>750000</v>
+      </c>
+      <c r="E20" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="15">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1000000</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="2"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/app/seeds/union_test.xlsx
+++ b/app/seeds/union_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19240" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="5"/>
+    <workbookView xWindow="25060" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="テストA-1" sheetId="26" r:id="rId1"/>
@@ -370,8 +370,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="171">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -569,7 +593,7 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="171">
+  <cellStyles count="195">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -655,6 +679,18 @@
     <cellStyle name="ハイパーリンク" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -741,6 +777,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2578,8 +2626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2656,43 +2704,47 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -2701,15 +2753,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -2719,29 +2771,27 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="12"/>
@@ -2755,270 +2805,270 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="15">
+      <c r="C17" s="15">
         <v>3.9060000000000002E-3</v>
       </c>
-      <c r="C17" s="8">
+      <c r="D17" s="8">
         <v>3906</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>3906</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="15">
+      <c r="C18" s="15">
         <v>0.24902299999999999</v>
       </c>
-      <c r="C18" s="8">
+      <c r="D18" s="8">
         <v>249023</v>
       </c>
-      <c r="D18" s="11">
+      <c r="E18" s="11">
         <v>3906</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>252929</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="15">
+      <c r="C19" s="15">
         <v>0.24902299999999999</v>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <v>249023</v>
       </c>
-      <c r="D19" s="11">
+      <c r="E19" s="11">
         <v>252929</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>501952</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="15">
+      <c r="C20" s="15">
         <v>0.24902299999999999</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>249023</v>
       </c>
-      <c r="D20" s="11">
+      <c r="E20" s="11">
         <v>501952</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>750975</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="15">
+      <c r="C21" s="15">
         <v>0.24902299999999999</v>
       </c>
-      <c r="C21" s="8">
+      <c r="D21" s="8">
         <v>249025</v>
       </c>
-      <c r="D21" s="11">
+      <c r="E21" s="11">
         <v>750975</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
         <v>1000000</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="15">
+      <c r="C22" s="15">
         <v>1</v>
       </c>
-      <c r="C22" s="8">
+      <c r="D22" s="8">
         <v>1000000</v>
       </c>
-      <c r="D22" s="11">
+      <c r="E22" s="11">
         <v>0</v>
       </c>
-      <c r="E22" s="11">
+      <c r="F22" s="11">
         <v>1000000</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="15">
+      <c r="C23" s="15">
         <v>1</v>
       </c>
-      <c r="C23" s="8">
+      <c r="D23" s="8">
         <v>1000000</v>
       </c>
-      <c r="D23" s="11">
+      <c r="E23" s="11">
         <v>0</v>
       </c>
-      <c r="E23" s="11">
+      <c r="F23" s="11">
         <v>1000000</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>60</v>
       </c>
       <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3036,8 +3086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -3115,43 +3165,47 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="E9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>23</v>
+      <c r="A10" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
+      <c r="A11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
@@ -3160,15 +3214,15 @@
         <v>4</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="11"/>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
@@ -3178,29 +3232,27 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="G13" s="2">
-        <v>1</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="12"/>
@@ -3214,249 +3266,248 @@
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="C16" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="D16" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="E16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="F16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="14" t="s">
-        <v>63</v>
-      </c>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="15">
+      <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="15">
         <v>0.25</v>
       </c>
-      <c r="C17" s="8">
+      <c r="D17" s="8">
         <v>250000</v>
       </c>
-      <c r="D17" s="11">
+      <c r="E17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="11">
+      <c r="F17" s="11">
         <v>250000</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>56</v>
-      </c>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="15">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15">
         <v>0.25</v>
       </c>
-      <c r="C18" s="8">
+      <c r="D18" s="8">
         <v>250000</v>
       </c>
-      <c r="D18" s="11">
+      <c r="E18" s="11">
         <v>250000</v>
       </c>
-      <c r="E18" s="11">
+      <c r="F18" s="11">
         <v>500000</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>57</v>
       </c>
       <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="15">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="15">
         <v>0.25</v>
       </c>
-      <c r="C19" s="8">
+      <c r="D19" s="8">
         <v>250000</v>
       </c>
-      <c r="D19" s="11">
+      <c r="E19" s="11">
         <v>500000</v>
       </c>
-      <c r="E19" s="11">
+      <c r="F19" s="11">
         <v>750000</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="15">
+      <c r="A20" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="15">
         <v>0.25</v>
       </c>
-      <c r="C20" s="8">
+      <c r="D20" s="8">
         <v>250000</v>
       </c>
-      <c r="D20" s="11">
+      <c r="E20" s="11">
         <v>750000</v>
       </c>
-      <c r="E20" s="11">
+      <c r="F20" s="11">
         <v>1000000</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="15">
+      <c r="A21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="C21" s="8">
+      <c r="D21" s="8">
         <v>1000000</v>
       </c>
-      <c r="D21" s="11">
+      <c r="E21" s="11">
         <v>0</v>
       </c>
-      <c r="E21" s="11">
+      <c r="F21" s="11">
         <v>1000000</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>59</v>
-      </c>
       <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="6"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="11"/>
-      <c r="F24" s="2"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="11"/>
-      <c r="F25" s="2"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="11"/>
-      <c r="F26" s="2"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="11"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="2"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="11"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="11"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="11"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="11"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="11"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="2"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="11"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="11"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="11"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="11"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="11"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="11"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="2"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="6"/>
+      <c r="F36" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/app/seeds/union_test.xlsx
+++ b/app/seeds/union_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25060" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927" activeTab="4"/>
+    <workbookView xWindow="25060" yWindow="0" windowWidth="23620" windowHeight="20940" tabRatio="927"/>
   </bookViews>
   <sheets>
     <sheet name="テストA-1" sheetId="26" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="58">
   <si>
     <t>名前</t>
   </si>
@@ -171,24 +171,6 @@
   </si>
   <si>
     <t>{"test_a_cd":20230000,"lv":1}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20020100,"lv":3}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20030100,"lv":3}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20210000,"lv":4}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20230100,"lv":3}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20232100,"lv":1}</t>
-  </si>
-  <si>
-    <t>{"test_a_cd":20230100,"lv":4}</t>
   </si>
   <si>
     <t>UnionTestA00000001</t>
@@ -370,8 +352,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -593,7 +601,7 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="221">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -691,6 +699,19 @@
     <cellStyle name="ハイパーリンク" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="219" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -789,6 +810,19 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="220" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1119,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1148,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1156,7 +1190,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1516,7 +1550,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1545,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1553,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1689,7 +1723,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15">
         <v>0.25</v>
@@ -1708,7 +1742,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B17" s="15">
         <v>0.25</v>
@@ -1727,7 +1761,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B18" s="15">
         <v>0.25</v>
@@ -1746,7 +1780,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B19" s="15">
         <v>0.25</v>
@@ -1893,6 +1927,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1906,7 +1941,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -1935,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1943,7 +1978,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2079,38 +2114,58 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="C16" s="8">
-        <v>1000000</v>
+        <v>333333</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="11">
-        <v>1000000</v>
+      <c r="E16" s="8">
+        <v>333333</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="C17" s="8">
+        <v>333333</v>
+      </c>
+      <c r="D17" s="8">
+        <v>333333</v>
+      </c>
+      <c r="E17" s="11">
+        <v>666666</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="15">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="C18" s="8">
+        <v>333334</v>
+      </c>
+      <c r="D18" s="11">
+        <v>666666</v>
+      </c>
+      <c r="E18" s="11">
+        <v>1000000</v>
+      </c>
       <c r="F18" s="6"/>
       <c r="G18" s="17"/>
     </row>
@@ -2253,6 +2308,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2266,7 +2322,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="13" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2295,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2303,7 +2359,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2439,29 +2495,39 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B16" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="8">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D16" s="11">
         <v>0</v>
       </c>
       <c r="E16" s="11">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C17" s="8">
+        <v>500000</v>
+      </c>
+      <c r="D17" s="11">
+        <v>500000</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1000000</v>
+      </c>
       <c r="F17" s="6"/>
       <c r="G17" s="17"/>
     </row>
@@ -2626,7 +2692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
@@ -2655,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2663,7 +2729,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2699,22 +2765,22 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -2806,7 +2872,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
@@ -2826,7 +2892,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -2846,7 +2912,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -2866,7 +2932,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -2886,7 +2952,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -2906,7 +2972,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
@@ -2926,10 +2992,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C22" s="15">
         <v>1</v>
@@ -2947,10 +3013,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C23" s="15">
         <v>1</v>
@@ -3116,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3124,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3160,22 +3226,22 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11">
         <v>1</v>
@@ -3267,7 +3333,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="14" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
@@ -3288,7 +3354,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>27</v>
@@ -3309,7 +3375,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -3330,7 +3396,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>29</v>
@@ -3351,7 +3417,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>30</v>
@@ -3371,10 +3437,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" s="15">
         <v>1</v>
